--- a/data/data_profesores_catedra.xlsx
+++ b/data/data_profesores_catedra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/df_diazc_uniandes_edu_co/Documents/Semestre 7/Introducción a la Ciencia de Datos/Taller 3/IntroCienciaDatos3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D725EB14-371A-E341-BA5B-267D8CCBA382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{D725EB14-371A-E341-BA5B-267D8CCBA382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A59B8660-B54F-49F5-A3DB-1DBBD5A3A750}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{6BCBC49A-D95A-8D42-84CE-C5366A346B60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BCBC49A-D95A-8D42-84CE-C5366A346B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,17 +516,17 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -596,7 +596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -631,7 +631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -666,7 +666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -701,7 +701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -736,10 +736,28 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <v>1</v>
       </c>
@@ -753,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -788,7 +806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -823,7 +841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -833,6 +851,9 @@
       <c r="C10">
         <v>2</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -855,10 +876,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11">
         <v>4</v>
       </c>
@@ -875,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -910,7 +946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -945,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -980,10 +1016,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
         <v>3</v>
       </c>
@@ -1009,7 +1051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1114,7 +1156,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1149,13 +1191,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
         <v>5</v>
       </c>
@@ -1174,11 +1219,14 @@
       <c r="I20">
         <v>2</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1200,6 +1248,9 @@
       <c r="G21">
         <v>4</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21">
         <v>2</v>
       </c>
@@ -1210,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1238,8 +1289,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1309,10 +1366,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="G25">
         <v>8</v>
       </c>
@@ -1329,7 +1401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1364,7 +1436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1399,10 +1471,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28">
         <v>2</v>
       </c>
@@ -1418,11 +1496,17 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1457,7 +1541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1492,7 +1576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1527,15 +1611,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
         <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -1556,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1591,7 +1681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1626,7 +1716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1661,7 +1751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1696,13 +1786,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
       <c r="E37">
         <v>3</v>
       </c>
@@ -1712,6 +1808,9 @@
       <c r="G37">
         <v>2</v>
       </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
       <c r="I37">
         <v>3</v>
       </c>
@@ -1722,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1757,7 +1856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1779,14 +1878,20 @@
       <c r="G39">
         <v>2</v>
       </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
       <c r="I39">
         <v>1</v>
       </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
       <c r="K39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1821,7 +1926,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1856,15 +1961,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
